--- a/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,94 +586,94 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2021</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2021</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -682,94 +682,94 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2021</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2021</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -794,94 +794,94 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2024</v>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2024</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -890,110 +890,110 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2024</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2024</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1012,6 +1012,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
@@ -175,85 +175,85 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>{'team': 'Romania', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Albania', 'points': 3, 'goal_difference': -2, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Switzerland', 'points': 2, 'goal_difference': -3, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -2, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -2, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Switzerland', 'points': 4, 'goal_difference': -1, 'goals_scored': 4}</t>
-  </si>
-  <si>
-    <t>{'team': 'Scotland', 'points': 2, 'goal_difference': -4, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Russia', 'points': 4, 'goal_difference': -2, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Finland', 'points': 4, 'goal_difference': 0, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Albania', 'points': 2, 'goal_difference': -1, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Northern Ireland', 'points': 4, 'goal_difference': 1, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Austria', 'points': 4, 'goal_difference': 0, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Denmark', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Slovenia', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Denmark', 'points': 3, 'goal_difference': 0, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Czech Republic', 'points': 2, 'goal_difference': -1, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Croatia', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Austria', 'points': 4, 'goal_difference': 1, 'goals_scored': 3}</t>
-  </si>
-  <si>
-    <t>{'team': 'Sweden', 'points': 2, 'goal_difference': -1, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Spain', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Slovakia', 'points': 4, 'goal_difference': 0, 'goals_scored': 2}</t>
-  </si>
-  <si>
-    <t>{'team': 'Portugal', 'points': 3, 'goal_difference': 0, 'goals_scored': 1}</t>
-  </si>
-  <si>
-    <t>{'team': 'Germany', 'points': 4, 'goal_difference': 1, 'goals_scored': 4}</t>
-  </si>
-  <si>
-    <t>{'team': 'Portugal', 'points': 4, 'goal_difference': 1, 'goals_scored': 5}</t>
+    <t>{'team': 'Romania', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Albania', 'points': 3, 'goals_difference': -2, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Switzerland', 'points': 2, 'goals_difference': -3, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -2, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -2, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
+  </si>
+  <si>
+    <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Russia', 'points': 4, 'goals_difference': -2, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Finland', 'points': 4, 'goals_difference': 0, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Northern Ireland', 'points': 4, 'goals_difference': 1, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Denmark', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Slovenia', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
+  </si>
+  <si>
+    <t>{'team': 'Sweden', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
+  </si>
+  <si>
+    <t>{'team': 'Portugal', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
+  </si>
+  <si>
+    <t>{'team': 'Germany', 'points': 4, 'goals_difference': 1, 'goals_scored': 4}</t>
+  </si>
+  <si>
+    <t>{'team': 'Portugal', 'points': 4, 'goals_difference': 1, 'goals_scored': 5}</t>
   </si>
   <si>
     <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>

--- a/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_eu_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>changes</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>half_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -564,6 +569,7 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -631,6 +637,9 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -698,6 +707,9 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -769,6 +781,9 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -836,6 +851,9 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -903,6 +921,9 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -974,6 +995,9 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1045,6 +1069,9 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1116,6 +1143,9 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1183,6 +1213,9 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1250,6 +1283,9 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1317,6 +1353,9 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1388,6 +1427,9 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1459,6 +1501,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1530,6 +1575,9 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1601,6 +1649,9 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1672,6 +1723,9 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1743,6 +1797,9 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1814,6 +1871,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1881,6 +1941,9 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1948,6 +2011,9 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2019,6 +2085,9 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2090,6 +2159,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2161,6 +2233,9 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2232,6 +2307,9 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2303,6 +2381,9 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2374,6 +2455,9 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2445,6 +2529,9 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2516,6 +2603,9 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2587,6 +2677,9 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2658,6 +2751,9 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2728,6 +2824,9 @@
       </c>
       <c r="O33" t="n">
         <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2784,6 +2883,7 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2851,6 +2951,9 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2922,6 +3025,9 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2993,6 +3099,9 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3064,6 +3173,9 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3135,6 +3247,9 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3206,6 +3321,9 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3213,7 +3331,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3221,12 +3339,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -3271,6 +3389,9 @@
         </is>
       </c>
       <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,12 +3409,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3338,6 +3459,9 @@
         </is>
       </c>
       <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,7 +3471,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3355,12 +3479,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3405,6 +3529,9 @@
         </is>
       </c>
       <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,6 +3605,9 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3549,6 +3679,9 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3620,6 +3753,9 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3691,6 +3827,9 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3762,6 +3901,9 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3833,6 +3975,9 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3904,6 +4049,9 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3975,6 +4123,9 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4046,6 +4197,9 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4117,6 +4271,9 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4188,6 +4345,9 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4255,6 +4415,9 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4326,6 +4489,9 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4397,6 +4563,9 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4468,6 +4637,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4539,6 +4711,9 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4610,6 +4785,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4677,6 +4855,9 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4748,6 +4929,9 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4819,6 +5003,9 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4890,6 +5077,9 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4961,6 +5151,9 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5032,6 +5225,9 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5103,6 +5299,9 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5110,25 +5309,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5173,6 +5372,9 @@
       </c>
       <c r="O68" t="n">
         <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -5185,21 +5387,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5244,6 +5446,9 @@
       </c>
       <c r="O69" t="n">
         <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5252,25 +5457,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5315,6 +5520,9 @@
       </c>
       <c r="O70" t="n">
         <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -5323,25 +5531,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5386,6 +5594,9 @@
       </c>
       <c r="O71" t="n">
         <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -5394,25 +5605,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5457,6 +5668,9 @@
       </c>
       <c r="O72" t="n">
         <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -5465,25 +5679,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5528,6 +5742,9 @@
       </c>
       <c r="O73" t="n">
         <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -5536,25 +5753,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5599,6 +5816,9 @@
       </c>
       <c r="O74" t="n">
         <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -5607,25 +5827,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5670,6 +5890,9 @@
       </c>
       <c r="O75" t="n">
         <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -5682,21 +5905,21 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5741,6 +5964,9 @@
       </c>
       <c r="O76" t="n">
         <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -5749,7 +5975,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -5757,17 +5983,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5812,6 +6038,9 @@
       </c>
       <c r="O77" t="n">
         <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -5820,25 +6049,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5883,85 +6112,95 @@
       </c>
       <c r="O78" t="n">
         <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
+        <v>2021</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Switzerland', 'points': 4, 'goals_difference': -1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
+          <t>{'team': 'Russia', 'points': 4, 'goals_difference': -2, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 0, 'goals_scored': 3}</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
+          <t>{'team': 'Croatia', 'points': 2, 'goals_difference': -1, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
+          <t>{'team': 'Spain', 'points': 3, 'goals_difference': 0, 'goals_scored': 1}</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
+          <t>{'team': 'Germany', 'points': 4, 'goals_difference': 1, 'goals_scored': 4}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>2024</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
@@ -6006,6 +6245,7 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6017,23 +6257,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -6076,6 +6312,9 @@
       </c>
       <c r="O81" t="n">
         <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6088,7 +6327,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6102,7 +6341,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6147,6 +6386,9 @@
       </c>
       <c r="O82" t="n">
         <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6159,26 +6401,26 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
+          <t>{'team': 'Scotland', 'points': 2, 'goals_difference': -4, 'goals_scored': 2}</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6213,11 +6455,14 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Hungary']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O83" t="n">
         <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -6226,23 +6471,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -6285,6 +6534,9 @@
       </c>
       <c r="O84" t="n">
         <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6297,7 +6549,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6309,11 +6561,7 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -6356,6 +6604,9 @@
       </c>
       <c r="O85" t="n">
         <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6368,21 +6619,21 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6427,6 +6678,9 @@
       </c>
       <c r="O86" t="n">
         <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6439,7 +6693,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6453,7 +6707,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6498,6 +6752,9 @@
       </c>
       <c r="O87" t="n">
         <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -6506,23 +6763,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -6565,6 +6826,9 @@
       </c>
       <c r="O88" t="n">
         <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -6581,12 +6845,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6632,6 +6896,9 @@
       </c>
       <c r="O89" t="n">
         <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6640,27 +6907,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -6703,6 +6966,9 @@
       </c>
       <c r="O90" t="n">
         <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6715,7 +6981,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6729,7 +6995,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6774,6 +7040,9 @@
       </c>
       <c r="O91" t="n">
         <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6786,21 +7055,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6845,6 +7114,9 @@
       </c>
       <c r="O92" t="n">
         <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -6857,21 +7129,21 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6916,6 +7188,9 @@
       </c>
       <c r="O93" t="n">
         <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -6928,7 +7203,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6942,7 +7217,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6987,6 +7262,9 @@
       </c>
       <c r="O94" t="n">
         <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -6999,21 +7277,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7058,6 +7336,9 @@
       </c>
       <c r="O95" t="n">
         <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -7070,21 +7351,21 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7129,6 +7410,9 @@
       </c>
       <c r="O96" t="n">
         <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -7137,23 +7421,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -7196,6 +7484,9 @@
       </c>
       <c r="O97" t="n">
         <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -7204,7 +7495,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -7212,12 +7503,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -7263,6 +7554,9 @@
       </c>
       <c r="O98" t="n">
         <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7275,7 +7569,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7287,11 +7581,7 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
@@ -7334,6 +7624,9 @@
       </c>
       <c r="O99" t="n">
         <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7342,25 +7635,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7405,6 +7698,9 @@
       </c>
       <c r="O100" t="n">
         <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7417,7 +7713,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7431,7 +7727,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7476,6 +7772,9 @@
       </c>
       <c r="O101" t="n">
         <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7484,25 +7783,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7547,6 +7846,9 @@
       </c>
       <c r="O102" t="n">
         <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -7559,21 +7861,21 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7618,6 +7920,9 @@
       </c>
       <c r="O103" t="n">
         <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -7630,21 +7935,21 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7689,6 +7994,9 @@
       </c>
       <c r="O104" t="n">
         <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -7701,7 +8009,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7715,7 +8023,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7760,6 +8068,83 @@
       </c>
       <c r="O105" t="n">
         <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>94</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>{'team': 'Hungary', 'points': 1, 'goals_difference': -4, 'goals_scored': 2}</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>{'team': 'Albania', 'points': 2, 'goals_difference': -1, 'goals_scored': 3}</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>{'team': 'Denmark', 'points': 3, 'goals_difference': 0, 'goals_scored': 2}</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>{'team': 'Austria', 'points': 4, 'goals_difference': 1, 'goals_scored': 3}</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>{'team': 'Slovakia', 'points': 4, 'goals_difference': 0, 'goals_scored': 2}</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>{'team': 'Czech Republic', 'points': 2, 'goals_difference': -1, 'goals_scored': 2}</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
